--- a/outputs-r202/c__Kiritimatiellae.xlsx
+++ b/outputs-r202/c__Kiritimatiellae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -561,6 +566,11 @@
           <t>o__RFP12</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>o__RFP12(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -612,6 +622,11 @@
           <t>o__RFP12</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>o__RFP12</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -663,6 +678,11 @@
           <t>o__B70-G9</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>o__B70-G9(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -714,6 +734,11 @@
           <t>o__RFP12</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>o__RFP12</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -761,6 +786,11 @@
         <v>0.9999999999996459</v>
       </c>
       <c r="O6" t="inlineStr">
+        <is>
+          <t>o__RFP12</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>o__RFP12</t>
         </is>

--- a/outputs-r202/c__Kiritimatiellae.xlsx
+++ b/outputs-r202/c__Kiritimatiellae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,62 +740,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>RUG673.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2.220446049250207e-14</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.220446049250207e-14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.220446049250207e-14</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.220446049250207e-14</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.220446049250207e-14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9999999999996459</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.220446049250207e-14</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.220446049250207e-14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.320160634697551e-13</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.220446049250207e-14</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.220446049250207e-14</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.220446049250207e-14</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.9999999999996459</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>o__RFP12</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>o__RFP12</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
